--- a/Module 14 - Financial Instruments Derecognition.xlsx
+++ b/Module 14 - Financial Instruments Derecognition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1300" documentId="8_{FD3ED545-F1D9-42B9-BF3B-68B579A73AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A62D38A-221E-49F9-AAF9-C08FAC54F76A}"/>
+  <xr:revisionPtr revIDLastSave="1303" documentId="8_{FD3ED545-F1D9-42B9-BF3B-68B579A73AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E46D375C-F13F-45B8-99C9-25A1133509CB}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="5415" windowHeight="11385" activeTab="4" xr2:uid="{DF5AE081-8450-4B7E-8634-5B62B0F464C3}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="12420" windowHeight="11385" activeTab="4" xr2:uid="{DF5AE081-8450-4B7E-8634-5B62B0F464C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="333">
   <si>
     <t>Module 14 - Financial Instruments Derecognition</t>
   </si>
@@ -1287,7 +1287,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
@@ -1330,17 +1330,18 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1928,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC85C54-A4ED-4388-A978-26CB6FC5E712}">
   <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,6 +1952,11 @@
         <v>150</v>
       </c>
     </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -1972,6 +1978,7 @@
     <hyperlink ref="B2" location="'Module 14'!A1" display="Module 14" xr:uid="{FBB8769C-82B5-412A-9AC9-AB5C5E2089C2}"/>
     <hyperlink ref="C2" location="WSE14.1!A1" display="WSE14.1" xr:uid="{7B53A37B-DDFA-4867-BFAB-9F103AEA2CD7}"/>
     <hyperlink ref="C3" location="WSE14.2!A1" display="WSE14.2" xr:uid="{3A77335F-4285-4EB7-83AB-678F940E63BA}"/>
+    <hyperlink ref="C4" location="WSE14.3!A1" display="WSE14.2" xr:uid="{47A43E47-DF68-444B-B214-245DCB911452}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1982,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B09FAD-1A0E-429F-A0B6-49444ECC6702}">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2902,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21029681-8599-473A-BAC2-CC23A3D536C1}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3164,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361818FD-46F0-4747-911B-1654E19675FC}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3696,16 +3703,16 @@
       <c r="D80" s="21"/>
     </row>
     <row r="81" spans="2:4" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
     </row>
     <row r="82" spans="2:4" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
     </row>
     <row r="83" spans="2:4" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="84" spans="2:4" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3780,7 +3787,7 @@
   <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3805,7 +3812,7 @@
       <c r="B2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="36">
         <f>+A2/33</f>
         <v>0.33333333333333331</v>
       </c>
@@ -3849,7 +3856,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="34">
+      <c r="C10" s="32">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -4145,103 +4152,103 @@
         <v>326</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="36" t="s">
+    <row r="43" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="35">
         <f>+D32</f>
         <v>175.994</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="36" t="s">
+    <row r="44" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37">
+      <c r="E44" s="35"/>
+      <c r="F44" s="35">
         <f>+E43</f>
         <v>175.994</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36">
+    <row r="45" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="34">
         <v>0</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-    </row>
-    <row r="46" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-    </row>
-    <row r="47" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="36" t="s">
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="34" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="36" t="s">
+    <row r="48" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="36" t="s">
+    <row r="49" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="35">
         <f>-E32</f>
         <v>120</v>
       </c>
-      <c r="F49" s="37"/>
-    </row>
-    <row r="50" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36">
+      <c r="F49" s="35"/>
+    </row>
+    <row r="50" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="34">
         <v>0</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="35">
         <f>+E49</f>
         <v>120</v>
       </c>
-      <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="36" t="s">
+      <c r="H50" s="35"/>
+    </row>
+    <row r="51" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="F51" s="37"/>
-    </row>
-    <row r="52" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F52" s="37"/>
-    </row>
-    <row r="53" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="36" t="s">
+      <c r="F51" s="35"/>
+    </row>
+    <row r="52" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="35"/>
+    </row>
+    <row r="53" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="34" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36">
+    <row r="54" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="34">
         <v>1</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="34">
         <f>+F55</f>
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="36" t="s">
+    <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="34">
         <v>100</v>
       </c>
     </row>
@@ -5044,7 +5051,7 @@
       <c r="B172" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C172" s="34">
+      <c r="C172" s="32">
         <v>1</v>
       </c>
     </row>
@@ -5186,7 +5193,7 @@
       <c r="C191" s="3">
         <v>44377</v>
       </c>
-      <c r="E191" s="35">
+      <c r="E191" s="33">
         <f t="shared" ref="E191:E193" si="8">+(1+$C$177)^B191</f>
         <v>1.0334408546211051</v>
       </c>
@@ -5202,7 +5209,7 @@
       <c r="C192" s="3">
         <v>44561</v>
       </c>
-      <c r="E192" s="35">
+      <c r="E192" s="33">
         <f t="shared" si="8"/>
         <v>1.0680000000000001</v>
       </c>
@@ -5218,7 +5225,7 @@
       <c r="C193" s="3">
         <v>44742</v>
       </c>
-      <c r="E193" s="35">
+      <c r="E193" s="33">
         <f t="shared" si="8"/>
         <v>1.1037148327353403</v>
       </c>
@@ -5234,8 +5241,8 @@
       <c r="C194" s="3">
         <v>44926</v>
       </c>
-      <c r="E194" s="35">
-        <f>+(1+$C$177)^B194</f>
+      <c r="E194" s="33">
+        <f t="shared" ref="E194:E199" si="10">+(1+$C$177)^B194</f>
         <v>1.1406240000000001</v>
       </c>
       <c r="F194" s="5">
@@ -5250,12 +5257,12 @@
       <c r="C195" s="3">
         <v>45107</v>
       </c>
-      <c r="E195" s="35">
-        <f>+(1+$C$177)^B195</f>
+      <c r="E195" s="33">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F195" s="5">
-        <f t="shared" ref="F195:F197" si="10">+D195/E195</f>
+        <f t="shared" ref="F195:F197" si="11">+D195/E195</f>
         <v>0</v>
       </c>
     </row>
@@ -5269,8 +5276,8 @@
       <c r="D196" s="5">
         <v>0</v>
       </c>
-      <c r="E196" s="35">
-        <f>+(1+$C$177)^B196</f>
+      <c r="E196" s="33">
+        <f t="shared" si="10"/>
         <v>1.0334408546211051</v>
       </c>
       <c r="F196" s="5">
@@ -5293,16 +5300,16 @@
         <f>+C171*C173*6/12</f>
         <v>120</v>
       </c>
-      <c r="E197" s="35">
-        <f>+(1+$C$177)^B197</f>
+      <c r="E197" s="33">
+        <f t="shared" si="10"/>
         <v>1.0680000000000001</v>
       </c>
       <c r="F197" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>112.35955056179775</v>
       </c>
       <c r="H197" s="1">
-        <f t="shared" ref="H196:H199" si="11">+F197*G197</f>
+        <f t="shared" ref="H197:H199" si="12">+F197*G197</f>
         <v>0</v>
       </c>
     </row>
@@ -5317,8 +5324,8 @@
         <f>+C171*C173*6/12</f>
         <v>120</v>
       </c>
-      <c r="E198" s="35">
-        <f>+(1+$C$177)^B198</f>
+      <c r="E198" s="33">
+        <f t="shared" si="10"/>
         <v>1.1406240000000001</v>
       </c>
       <c r="F198" s="5">
@@ -5326,7 +5333,7 @@
         <v>105.20557168707654</v>
       </c>
       <c r="H198" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5341,8 +5348,8 @@
         <f>+C171*2/3</f>
         <v>2000</v>
       </c>
-      <c r="E199" s="35">
-        <f>+(1+$C$177)^B199</f>
+      <c r="E199" s="33">
+        <f t="shared" si="10"/>
         <v>1.1406240000000001</v>
       </c>
       <c r="F199" s="5">
@@ -5350,7 +5357,7 @@
         <v>1753.4261947846089</v>
       </c>
       <c r="H199" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
